--- a/webapps/glaf/WEB-INF/conf/report/templates/MedicalSpotCheckTotalV35.xlsx
+++ b/webapps/glaf/WEB-INF/conf/report/templates/MedicalSpotCheckTotalV35.xlsx
@@ -1053,6 +1053,31 @@
   </si>
   <si>
     <r>
+      <t>${row.model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.negative3DQty}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>$</t>
     </r>
     <r>
@@ -1063,31 +1088,6 @@
         <charset val="134"/>
       </rPr>
       <t>{row.subTotal1}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${row.model</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.negative3DQty}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1099,7 +1099,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1144,6 +1144,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1273,7 +1281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1322,6 +1330,15 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1357,12 +1374,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,7 +1692,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1698,56 +1709,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
     </row>
     <row r="2" spans="1:15" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="11" t="s">
         <v>17</v>
       </c>
@@ -1756,30 +1767,30 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="23" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="18"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1821,7 @@
       <c r="M5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="27"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1830,7 +1841,7 @@
         <v>35</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>36</v>
@@ -1847,8 +1858,8 @@
       <c r="M6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="13" t="s">
-        <v>41</v>
+      <c r="N6" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="O6" s="3"/>
     </row>
@@ -1856,37 +1867,37 @@
       <c r="C7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="17" t="s">
         <v>31</v>
       </c>
     </row>
